--- a/map.xlsx
+++ b/map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김주호\Desktop\24-1\종설\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김주호\Documents\GitHub\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E20020B3-2885-4FF2-8177-2FEDD1947CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8A951A-B5A1-4FDD-B060-D49155CC6322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{2DA71CDD-AD60-487C-BAF1-C87192E711FA}"/>
+    <workbookView xWindow="7605" yWindow="3285" windowWidth="21600" windowHeight="11385" xr2:uid="{2DA71CDD-AD60-487C-BAF1-C87192E711FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,6 +187,14 @@
   </si>
   <si>
     <t>100*5*100 크기의 맵, 한가운데 경찰서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -268,7 +276,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -276,9 +284,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -621,7 +626,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -631,7 +636,7 @@
     <col min="5" max="7" width="14.375" customWidth="1"/>
     <col min="8" max="8" width="14.875" customWidth="1"/>
     <col min="9" max="9" width="13.375" customWidth="1"/>
-    <col min="10" max="10" width="34.625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="34.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -667,7 +672,9 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -692,7 +699,9 @@
       <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -748,10 +757,10 @@
       <c r="G4" s="2">
         <v>100</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>50</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>50</v>
       </c>
       <c r="J4" s="2" t="s">

--- a/map.xlsx
+++ b/map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김주호\Documents\GitHub\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\endgame\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8A951A-B5A1-4FDD-B060-D49155CC6322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6D2B5B-01A4-4B3D-86CB-79E81535EB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7605" yWindow="3285" windowWidth="21600" windowHeight="11385" xr2:uid="{2DA71CDD-AD60-487C-BAF1-C87192E711FA}"/>
+    <workbookView xWindow="-24645" yWindow="2235" windowWidth="25620" windowHeight="11385" xr2:uid="{2DA71CDD-AD60-487C-BAF1-C87192E711FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>map_plain</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -182,19 +178,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100*5*100 크기의 맵, 한가운데 경찰서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>설명</t>
+    <t>map_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(m)50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -276,7 +268,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -288,6 +280,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -623,57 +624,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD09BDCA-856C-41A4-8CFA-BDD08B4DF454}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="1" max="1" width="27.875" customWidth="1"/>
     <col min="2" max="4" width="15" customWidth="1"/>
     <col min="5" max="7" width="14.375" customWidth="1"/>
     <col min="8" max="8" width="14.875" customWidth="1"/>
     <col min="9" max="9" width="13.375" customWidth="1"/>
-    <col min="10" max="10" width="34.625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -685,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>1</v>
@@ -699,11 +698,9 @@
       <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -731,13 +728,11 @@
       <c r="I3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -763,12 +758,349 @@
       <c r="I4" s="2">
         <v>50</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/map.xlsx
+++ b/map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\endgame\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6D2B5B-01A4-4B3D-86CB-79E81535EB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D15AA16-600F-4670-B86A-EC2320833C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24645" yWindow="2235" windowWidth="25620" windowHeight="11385" xr2:uid="{2DA71CDD-AD60-487C-BAF1-C87192E711FA}"/>
+    <workbookView xWindow="6480" yWindow="2265" windowWidth="25770" windowHeight="11385" xr2:uid="{2DA71CDD-AD60-487C-BAF1-C87192E711FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -194,18 +194,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -268,7 +268,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -280,15 +280,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,13 +615,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD09BDCA-856C-41A4-8CFA-BDD08B4DF454}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="27.875" customWidth="1"/>
     <col min="2" max="4" width="15" customWidth="1"/>
@@ -640,7 +631,7 @@
     <col min="10" max="10" width="17.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,9 +659,8 @@
       <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -698,9 +688,8 @@
       <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -728,9 +717,8 @@
       <c r="I3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -744,359 +732,295 @@
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F4" s="2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="H4" s="2">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I4" s="2">
-        <v>50</v>
-      </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="6"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="6"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="6"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="6"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/map.xlsx
+++ b/map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\endgame\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D15AA16-600F-4670-B86A-EC2320833C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BE81A7-F3C6-43D3-905D-54A55F81C4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="2265" windowWidth="25770" windowHeight="11385" xr2:uid="{2DA71CDD-AD60-487C-BAF1-C87192E711FA}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="25770" windowHeight="11385" xr2:uid="{2DA71CDD-AD60-487C-BAF1-C87192E711FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -618,7 +618,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -732,19 +732,19 @@
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F4" s="2">
         <v>30</v>
       </c>
       <c r="G4" s="2">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="H4" s="2">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I4" s="2">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:9">
